--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value135.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value135.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9317542812740609</v>
+        <v>0.7764291763305664</v>
       </c>
       <c r="B1">
-        <v>1.771667056399708</v>
+        <v>3.034293413162231</v>
       </c>
       <c r="C1">
-        <v>3.441455805579535</v>
+        <v>3.996899366378784</v>
       </c>
       <c r="D1">
-        <v>2.49360760665466</v>
+        <v>0.9416834115982056</v>
       </c>
       <c r="E1">
-        <v>1.04172727786015</v>
+        <v>0.8759952187538147</v>
       </c>
     </row>
   </sheetData>
